--- a/doc/04_機能一覧_BtwoB.xlsx
+++ b/doc/04_機能一覧_BtwoB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6_sub\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD80FD2-BC0A-4EFC-822A-76B830BFBA3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E7AF2E-C37C-419F-AD6D-32868CB7B1C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28935" yWindow="345" windowWidth="14580" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="109">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -162,31 +162,345 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>愚痴一覧表示機能</t>
+  </si>
+  <si>
+    <t>ゲーム機能</t>
+  </si>
+  <si>
+    <t>ポップアップ表示機能</t>
+  </si>
+  <si>
+    <t>ユーザ登録</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイキャッチ表示機能</t>
+    <rPh sb="6" eb="10">
+      <t>ヒョウジキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>愚痴入力機能</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>愚痴分析機能</t>
-  </si>
-  <si>
-    <t>愚痴一覧表示機能</t>
-  </si>
-  <si>
-    <t>ゲーム機能</t>
-  </si>
-  <si>
-    <t>称号、ポイント機能</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ポップアップ表示機能</t>
+    <rPh sb="0" eb="4">
+      <t>グチニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愚痴入力</t>
+    <rPh sb="0" eb="4">
+      <t>グチニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愚痴分析結果グラフ化機能</t>
+  </si>
+  <si>
+    <t>週間円グラフ作成機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧円グラフ作成機能</t>
+  </si>
+  <si>
+    <t>直近愚痴表示</t>
+  </si>
+  <si>
+    <t>愚痴一覧表示</t>
+  </si>
+  <si>
+    <t>愚痴削除機能</t>
+  </si>
+  <si>
+    <t>ゲーム開始通知機能</t>
+  </si>
+  <si>
+    <t>愚痴選択機能</t>
+  </si>
+  <si>
+    <t>ゲーム選択機能</t>
+  </si>
+  <si>
+    <t>クリック破壊ゲーム</t>
+  </si>
+  <si>
+    <t>スペースキー連打ゲーム</t>
+  </si>
+  <si>
+    <t>文字クリックゲーム</t>
+  </si>
+  <si>
+    <t>ヤギのご飯ゲーム</t>
+  </si>
+  <si>
+    <t>称号/ポイント機能</t>
+  </si>
+  <si>
+    <t>ポイント加算機能</t>
+  </si>
+  <si>
+    <t>称号付与機能</t>
+  </si>
+  <si>
+    <t>登録完了ポップアップ</t>
+  </si>
+  <si>
+    <t>削除選択ポップアップ</t>
+  </si>
+  <si>
+    <t>ゲーム開始ポップアップ</t>
+  </si>
+  <si>
+    <t>クリック破壊ゲーム説明ポップアップ</t>
+  </si>
+  <si>
+    <t>スペースキー連打ゲーム説明ポップアップ</t>
+  </si>
+  <si>
+    <t>文字クリックゲーム説明ポップアップ</t>
+  </si>
+  <si>
+    <t>ヤギのご飯ゲーム説明ポップアップ１</t>
+  </si>
+  <si>
+    <t>ヤギのご飯ゲーム説明ポップアップ２</t>
+  </si>
+  <si>
+    <t>ゲーム終了ポップアップ</t>
+  </si>
+  <si>
+    <t>Webアプリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LO001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LO002</t>
+  </si>
+  <si>
+    <t>LO003</t>
+  </si>
+  <si>
+    <t>MI001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MG001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MG002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MS001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MS002</t>
+  </si>
+  <si>
+    <t>MS003</t>
+  </si>
+  <si>
+    <t>GM001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GM002</t>
+  </si>
+  <si>
+    <t>GM003</t>
+  </si>
+  <si>
+    <t>GM004</t>
+  </si>
+  <si>
+    <t>GM005</t>
+  </si>
+  <si>
+    <t>GM006</t>
+  </si>
+  <si>
+    <t>GM007</t>
+  </si>
+  <si>
+    <t>PP001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PP002</t>
+  </si>
+  <si>
+    <t>PP003</t>
+  </si>
+  <si>
+    <t>PP004</t>
+  </si>
+  <si>
+    <t>PP005</t>
+  </si>
+  <si>
+    <t>PP006</t>
+  </si>
+  <si>
+    <t>PP007</t>
+  </si>
+  <si>
+    <t>PP008</t>
+  </si>
+  <si>
+    <t>PP009</t>
+  </si>
+  <si>
+    <t>ユーザ名、パスワード登録を入力する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名、パスワードを入力する</t>
+  </si>
+  <si>
+    <t>愚痴の入力</t>
+  </si>
+  <si>
+    <t>タグ付けの割合に応じてアイキャッチの内容を変更可能。</t>
+  </si>
+  <si>
+    <t>タグ付けの割合に応じた円グラフを作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愚痴を表示</t>
+  </si>
+  <si>
+    <t>愚痴の一覧を表示</t>
+  </si>
+  <si>
+    <t>愚痴の削除を表示</t>
+  </si>
+  <si>
+    <t>愚痴の量やタグ付けの傾向に応じて、ゲーム開始ポップアップを表示する</t>
+  </si>
+  <si>
+    <t>ゲーム開始前にチェックボックスによって愚痴を選択する機能</t>
+  </si>
+  <si>
+    <t>ゲーム開始前にゲームの選択ができる。</t>
+  </si>
+  <si>
+    <t>クリックの回数で地球を破壊するゲーム</t>
+  </si>
+  <si>
+    <t>スペースキーを押した回数で地球を破壊するゲーム</t>
+  </si>
+  <si>
+    <t>画面に流れてくる愚痴をクリックして破壊するゲーム</t>
+  </si>
+  <si>
+    <t>書いた愚痴を手紙化し、手紙をドラック＆ドロップでヤギに渡すことで食べてくれるゲーム</t>
+  </si>
+  <si>
+    <t>CP001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CP002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ログイン回数」「愚痴の入力件数」「ゲームプレイ回数」それぞれに応じたポイントを加算する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポイントに応じてユーザに称号を与える</t>
+  </si>
+  <si>
+    <t>ユーザ新規登録画面の登録ボタンをクリックした際に結果を表示する。</t>
+  </si>
+  <si>
+    <t>愚痴一覧表示画面の削除ボタンをクリックした際に表示する。</t>
+  </si>
+  <si>
+    <t>愚痴一覧表示画面に表示する。</t>
+  </si>
+  <si>
+    <t>クリック破壊ゲーム説明。クリック破壊ゲーム画面に表示する。</t>
+  </si>
+  <si>
+    <t>スペースキー連打ゲーム説明。スペースキー連打ゲーム画面に表示する。</t>
+  </si>
+  <si>
+    <t>文字クリックゲーム説明。文字クリックゲーム画面に表示する。</t>
+  </si>
+  <si>
+    <t>ヤギのご飯ゲーム説明（手紙選択）。ヤギのご飯ゲーム画面に表示。</t>
+  </si>
+  <si>
+    <t>ヤギのご飯ゲーム説明（手紙給仕）。ヤギのご飯ゲーム画面に表示。</t>
+  </si>
+  <si>
+    <t>４つのゲーム画面に表示する。</t>
+  </si>
+  <si>
+    <r>
+      <t>アイキャッチを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>秒間表示する。</t>
+    </r>
+  </si>
+  <si>
+    <t>Java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Java,JavaScript</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Webアプリ制作</t>
+    <rPh sb="6" eb="8">
+      <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +531,19 @@
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -275,7 +602,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -300,13 +627,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -649,33 +985,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.26953125" customWidth="1"/>
     <col min="2" max="2" width="6.7265625" customWidth="1"/>
-    <col min="3" max="3" width="24.36328125" customWidth="1"/>
-    <col min="4" max="5" width="12.6328125" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="48.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.90625" customWidth="1"/>
-    <col min="8" max="8" width="33.90625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="106.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>108</v>
+      </c>
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="8"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E3" s="4" t="s">
@@ -687,24 +1027,28 @@
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="10">
         <v>45089</v>
       </c>
-      <c r="I3" s="8"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="H4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="H5" s="10">
+        <v>45090</v>
+      </c>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
@@ -742,338 +1086,648 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="2:9" ht="14" x14ac:dyDescent="0.2">
+      <c r="F8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="10" spans="2:9" ht="14" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="11" spans="2:9" ht="14" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>4</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="12" spans="2:9" ht="14" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>5</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="13" spans="2:9" ht="14" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="2"/>
+      <c r="F13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="14" spans="2:9" ht="14" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>7</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="14" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <v>8</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="14" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <v>9</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="14" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>10</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="14" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>11</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="14" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>12</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="14" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>13</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="14" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>14</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="14" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>15</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="14" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <v>16</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F23" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="14" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
         <v>17</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="14" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <v>18</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="14" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
         <v>19</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F26" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="14" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
         <v>20</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F27" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="14" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
         <v>21</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F28" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="14" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
         <v>22</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F29" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="14" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
         <v>23</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F30" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="14" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <v>24</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F31" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="14" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
         <v>25</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F32" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="14" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
         <v>26</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F33" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="14" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
         <v>27</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="2"/>
+      <c r="F34" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
@@ -1085,7 +1739,9 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="2"/>
+      <c r="I35" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="2">

--- a/doc/04_機能一覧_BtwoB.xlsx
+++ b/doc/04_機能一覧_BtwoB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E7AF2E-C37C-419F-AD6D-32868CB7B1C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882F8CA7-C6ED-44F0-8A79-49D7E0B8292F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31335" yWindow="750" windowWidth="23820" windowHeight="14475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="112">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -182,13 +182,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイキャッチ表示機能</t>
-    <rPh sb="6" eb="10">
-      <t>ヒョウジキノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>愚痴入力機能</t>
     <rPh sb="0" eb="4">
       <t>グチニュウリョク</t>
@@ -264,24 +257,6 @@
     <t>ゲーム開始ポップアップ</t>
   </si>
   <si>
-    <t>クリック破壊ゲーム説明ポップアップ</t>
-  </si>
-  <si>
-    <t>スペースキー連打ゲーム説明ポップアップ</t>
-  </si>
-  <si>
-    <t>文字クリックゲーム説明ポップアップ</t>
-  </si>
-  <si>
-    <t>ヤギのご飯ゲーム説明ポップアップ１</t>
-  </si>
-  <si>
-    <t>ヤギのご飯ゲーム説明ポップアップ２</t>
-  </si>
-  <si>
-    <t>ゲーム終了ポップアップ</t>
-  </si>
-  <si>
     <t>Webアプリ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -293,9 +268,6 @@
     <t>LO002</t>
   </si>
   <si>
-    <t>LO003</t>
-  </si>
-  <si>
     <t>MI001</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -348,24 +320,6 @@
   </si>
   <si>
     <t>PP003</t>
-  </si>
-  <si>
-    <t>PP004</t>
-  </si>
-  <si>
-    <t>PP005</t>
-  </si>
-  <si>
-    <t>PP006</t>
-  </si>
-  <si>
-    <t>PP007</t>
-  </si>
-  <si>
-    <t>PP008</t>
-  </si>
-  <si>
-    <t>PP009</t>
   </si>
   <si>
     <t>ユーザ名、パスワード登録を入力する</t>
@@ -493,6 +447,71 @@
     <rPh sb="6" eb="8">
       <t>セイサク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポップアップ表示機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイキャッチモーダル機能</t>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーダル表示機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリック破壊ゲーム説明モーダル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペースキー連打ゲーム説明モーダル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字クリックゲーム説明モーダル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヤギのご飯ゲーム説明モーダル１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヤギのご飯ゲーム説明モーダル２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MD004</t>
+  </si>
+  <si>
+    <t>MD001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MD002</t>
+  </si>
+  <si>
+    <t>MD003</t>
+  </si>
+  <si>
+    <t>MD005</t>
+  </si>
+  <si>
+    <t>MD006</t>
+  </si>
+  <si>
+    <t>ゲーム終了モーダル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MD007</t>
+  </si>
+  <si>
+    <t>2023/6/13,14</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -630,20 +649,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -985,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1007,15 +1026,15 @@
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="9"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E3" s="4" t="s">
@@ -1027,28 +1046,28 @@
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="12">
         <v>45089</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="9"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="10">
-        <v>45090</v>
-      </c>
-      <c r="I5" s="9"/>
+      <c r="H5" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
@@ -1086,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>17</v>
@@ -1096,13 +1115,13 @@
         <v>21</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>77</v>
+        <v>45</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
@@ -1110,7 +1129,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>17</v>
@@ -1120,13 +1139,13 @@
         <v>22</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>78</v>
+        <v>46</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="14" x14ac:dyDescent="0.2">
@@ -1134,23 +1153,23 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>44</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>105</v>
+        <v>47</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="14" x14ac:dyDescent="0.2">
@@ -1158,23 +1177,23 @@
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>79</v>
+        <v>26</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="14" x14ac:dyDescent="0.2">
@@ -1182,23 +1201,23 @@
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>80</v>
+      <c r="G12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="14" x14ac:dyDescent="0.2">
@@ -1206,23 +1225,23 @@
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="8" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>81</v>
+        <v>50</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="14" x14ac:dyDescent="0.2">
@@ -1230,7 +1249,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>18</v>
@@ -1240,13 +1259,13 @@
         <v>29</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>82</v>
+        <v>51</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="14" x14ac:dyDescent="0.2">
@@ -1254,7 +1273,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>18</v>
@@ -1264,13 +1283,13 @@
         <v>30</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>83</v>
+        <v>52</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="14" x14ac:dyDescent="0.2">
@@ -1278,23 +1297,23 @@
         <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="8" t="s">
         <v>31</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="14" x14ac:dyDescent="0.2">
@@ -1302,7 +1321,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>19</v>
@@ -1312,13 +1331,13 @@
         <v>32</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>85</v>
+        <v>54</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="14" x14ac:dyDescent="0.2">
@@ -1326,7 +1345,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>19</v>
@@ -1336,13 +1355,13 @@
         <v>33</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>86</v>
+        <v>55</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="14" x14ac:dyDescent="0.2">
@@ -1350,7 +1369,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>19</v>
@@ -1360,13 +1379,13 @@
         <v>34</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>87</v>
+        <v>56</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="14" x14ac:dyDescent="0.2">
@@ -1374,7 +1393,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>19</v>
@@ -1384,13 +1403,13 @@
         <v>35</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>88</v>
+        <v>57</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="14" x14ac:dyDescent="0.2">
@@ -1398,7 +1417,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>19</v>
@@ -1408,13 +1427,13 @@
         <v>36</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>89</v>
+        <v>58</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="14" x14ac:dyDescent="0.2">
@@ -1422,7 +1441,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>19</v>
@@ -1432,13 +1451,13 @@
         <v>37</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>90</v>
+        <v>59</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="14" x14ac:dyDescent="0.2">
@@ -1446,23 +1465,23 @@
         <v>16</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>91</v>
+        <v>78</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="14" x14ac:dyDescent="0.2">
@@ -1470,23 +1489,23 @@
         <v>17</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="8" t="s">
         <v>40</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>94</v>
+        <v>79</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="14" x14ac:dyDescent="0.2">
@@ -1494,23 +1513,23 @@
         <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="8" t="s">
         <v>41</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>95</v>
+        <v>60</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="14" x14ac:dyDescent="0.2">
@@ -1518,7 +1537,7 @@
         <v>19</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>20</v>
@@ -1528,13 +1547,13 @@
         <v>42</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>96</v>
+        <v>61</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="14" x14ac:dyDescent="0.2">
@@ -1542,23 +1561,23 @@
         <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="8" t="s">
         <v>43</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>97</v>
+        <v>62</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="14" x14ac:dyDescent="0.2">
@@ -1566,23 +1585,23 @@
         <v>21</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="8" t="s">
-        <v>44</v>
+      <c r="F28" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>98</v>
+        <v>104</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="14" x14ac:dyDescent="0.2">
@@ -1590,23 +1609,23 @@
         <v>22</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="8" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>99</v>
+        <v>105</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="14" x14ac:dyDescent="0.2">
@@ -1614,23 +1633,23 @@
         <v>23</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="8" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>100</v>
+        <v>106</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="14" x14ac:dyDescent="0.2">
@@ -1638,23 +1657,23 @@
         <v>24</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="8" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>101</v>
+        <v>103</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="14" x14ac:dyDescent="0.2">
@@ -1662,23 +1681,23 @@
         <v>25</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="8" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>102</v>
+        <v>107</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="14" x14ac:dyDescent="0.2">
@@ -1686,23 +1705,23 @@
         <v>26</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="8" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>103</v>
+        <v>108</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="14" x14ac:dyDescent="0.2">
@@ -1710,23 +1729,23 @@
         <v>27</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="8" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>104</v>
+        <v>110</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
@@ -1739,9 +1758,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="I35" s="2"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="2">

--- a/doc/04_機能一覧_BtwoB.xlsx
+++ b/doc/04_機能一覧_BtwoB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882F8CA7-C6ED-44F0-8A79-49D7E0B8292F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0290D1DF-6D48-44B6-80C4-DE17DC443CE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31335" yWindow="750" windowWidth="23820" windowHeight="14475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33060" yWindow="2145" windowWidth="19065" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="115">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -512,6 +512,26 @@
   </si>
   <si>
     <t>2023/6/13,14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PP004</t>
+  </si>
+  <si>
+    <t>ログイン失敗ポップアップ</t>
+    <rPh sb="4" eb="6">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン失敗時にログイン画面に表示する。</t>
+    <rPh sb="4" eb="6">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1002,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I36"/>
+  <dimension ref="B2:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="G16" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1588,17 +1608,17 @@
         <v>44</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
-        <v>96</v>
+      <c r="F28" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>92</v>
@@ -1615,14 +1635,14 @@
         <v>97</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="8" t="s">
-        <v>98</v>
+      <c r="F29" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>92</v>
@@ -1640,13 +1660,13 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>92</v>
@@ -1664,13 +1684,13 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>92</v>
@@ -1688,13 +1708,13 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>92</v>
@@ -1712,13 +1732,13 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>92</v>
@@ -1736,33 +1756,45 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" ht="14" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
         <v>28</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="2"/>
+      <c r="F35" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1771,6 +1803,18 @@
       <c r="G36" s="2"/>
       <c r="H36" s="3"/>
       <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37" s="2">
+        <v>29</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
